--- a/要件定義書/C表作成メモ.xlsx
+++ b/要件定義書/C表作成メモ.xlsx
@@ -5,15 +5,24 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\TOYO TIRE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\TOYO TIRE\Git\TOYOTIRE_BRAND\要件定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27375" windowHeight="11085" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27375" windowHeight="11085"/>
   </bookViews>
   <sheets>
     <sheet name="C表作成自動化対象" sheetId="1" r:id="rId1"/>
-    <sheet name="FrameDataコマンド入力値一覧" sheetId="2" r:id="rId2"/>
+    <sheet name="Load Drawingコマンド入力値一覧" sheetId="3" r:id="rId2"/>
+    <sheet name="FrameDataコマンド入力値一覧" sheetId="2" r:id="rId3"/>
+    <sheet name="Serialコマンド入力値一覧" sheetId="4" r:id="rId4"/>
+    <sheet name="Mold No.コマンド入力値一覧 " sheetId="5" r:id="rId5"/>
+    <sheet name="TWIコマンド入力値一覧" sheetId="6" r:id="rId6"/>
+    <sheet name="Platformコマンド入力値一覧 " sheetId="7" r:id="rId7"/>
+    <sheet name=" Safety Detailコマンド入力値一覧" sheetId="9" r:id="rId8"/>
+    <sheet name="Labeling Detailコマンド一覧" sheetId="11" r:id="rId9"/>
+    <sheet name="Detailコマンド一覧" sheetId="12" r:id="rId10"/>
+    <sheet name="Save Drawingコマンド一覧" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="222">
   <si>
     <t>C表作成自動化</t>
     <rPh sb="1" eb="4">
@@ -181,16 +190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「Create(DOM)」と「Create(IO)」の分岐が必要。</t>
-    <rPh sb="27" eb="29">
-      <t>ブンキ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メニューグループ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -497,10 +496,6 @@
   </si>
   <si>
     <t>bead structure</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[examination1]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -645,6 +640,868 @@
     <t>ファイル名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>examination1</t>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手動入力</t>
+    <rPh sb="0" eb="4">
+      <t>シュドウニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セリアル注記</t>
+    <rPh sb="4" eb="6">
+      <t>チュウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セリアル桁数</t>
+    <rPh sb="4" eb="6">
+      <t>ケタスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セリアルの桁数を決定する。
+単体操作だとコマンド「7 digit」と「8 digit」のどちらが実行されたかで判断している</t>
+    <rPh sb="5" eb="7">
+      <t>ケタスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セリアル注記有無</t>
+    <rPh sb="4" eb="6">
+      <t>チュウキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下自動化の場合のみに必要な入力値</t>
+    <rPh sb="0" eb="4">
+      <t>イカジドウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セリアルの桁数を決定する。
+単体操作だとコマンド「Create」（注記なし）と「Note/Year Sign」（注記あり）のどちらが実行されたかで判断している</t>
+    <rPh sb="5" eb="7">
+      <t>ケタスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>チュウキ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド「「Note/Year Sign」（注記ありセリアル）の場合のみ使用</t>
+    <rPh sb="22" eb="24">
+      <t>チュウキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モールド番号</t>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーク個数</t>
+    <rPh sb="3" eb="5">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6または7が入力される</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マークタイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A、B、C何れかの値が入力される</t>
+    <rPh sb="5" eb="6">
+      <t>イズ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーク有無</t>
+    <rPh sb="3" eb="5">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーク種類
+（国内用／海外用）</t>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コクナイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>カイガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マークの種類を決定する。
+単体操作だとコマンド「Create(DOM)」（国内用：矢印マーク）と「Create(IO)」（海外用：雪マーク）のどちらが実行されたかで判断している</t>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コクナイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>カイガイヨウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ユキ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マークの有無を決定する。
+単体操作だとマークが不要な場合はコマンドを実行しない。</t>
+    <rPh sb="4" eb="6">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現行の設定方法</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Safety</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Structure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tire Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Side Division</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Type Division</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Faiber Division</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pattern</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Size(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Size(2)</t>
+  </si>
+  <si>
+    <t>Size(3)</t>
+  </si>
+  <si>
+    <t>Size(4)</t>
+  </si>
+  <si>
+    <t>Size(5)</t>
+  </si>
+  <si>
+    <t>Size(6)</t>
+  </si>
+  <si>
+    <t>L/S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W/I 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S/S 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W/I 2</t>
+  </si>
+  <si>
+    <t>S/S 2</t>
+  </si>
+  <si>
+    <t>Bead Structure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Carcass)PR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Carcass)Material</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Beltor Breakr)
+No-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Beltor Breakr)
+Material-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Beltor Breakr)
+No-2</t>
+  </si>
+  <si>
+    <t>(Beltor Breakr)
+Material-2</t>
+  </si>
+  <si>
+    <t>(Beltor Breakr)
+No-3</t>
+  </si>
+  <si>
+    <t>(Beltor Breakr)
+Material-3</t>
+  </si>
+  <si>
+    <t>同上</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B-17185-00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FrameDataコマンドの入力内容
+Or 
+画面上で入力</t>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面上で入力</t>
+    <rPh sb="0" eb="3">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同上？→製品によってプライ表記かロードインデックス表記かが変わる？</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSCV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LT245</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規保存／編集</t>
+    <rPh sb="0" eb="4">
+      <t>シンキホゾン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面上でボタンを選択</t>
+    <rPh sb="0" eb="3">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しく図面登録するか、登録済みの図面情報を編集するかを選択する</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>トウロクズ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.1の画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B図面登録時または、FrameDataコマンドで入力している内容（右図赤枠）</t>
+    <rPh sb="4" eb="6">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>トウロクジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ウズ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>アカワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.2以降の画面</t>
+    <rPh sb="4" eb="6">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インチ数</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOUNT ONLYO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1～7の数字または空白</t>
+    <rPh sb="4" eb="6">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SAFETY WRNIN
+（左図画面1行目）</t>
+    <rPh sb="14" eb="18">
+      <t>サズガメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左図画面2行目</t>
+    <rPh sb="0" eb="4">
+      <t>サズガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左図画面3行目</t>
+    <rPh sb="0" eb="4">
+      <t>サズガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左図画面4行目</t>
+    <rPh sb="0" eb="4">
+      <t>サズガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左図画面5行目</t>
+    <rPh sb="0" eb="4">
+      <t>サズガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左図画面6行目</t>
+    <rPh sb="0" eb="4">
+      <t>サズガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左図画面7行目</t>
+    <rPh sb="0" eb="4">
+      <t>サズガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力不要な場合あり</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力不要な場合あり。
+入力できる値に制限あり</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風船番号</t>
+    <rPh sb="0" eb="2">
+      <t>フウセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択したオブジェクトに対しての風船番号を入力する。</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>フウセンバンゴウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FrameDataコマンドの入力内容</t>
+    <rPh sb="14" eb="18">
+      <t>ニュウリョクナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行の有無の分岐と、
+「Create(DOM)」（国内用）と「Create(IO)」（海外用）の分岐が必要。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>コクナイヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>カイガイヨウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択オブジェクトを削除する機能のため不要</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成したC表を呼び出すための機能なので不要</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年記号有無</t>
+    <rPh sb="0" eb="3">
+      <t>ネンキゴウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手動入力（Y/N）</t>
+    <rPh sb="0" eb="4">
+      <t>シュドウニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y（YESでも可）</t>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -653,7 +1510,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,6 +1529,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -965,7 +1831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,16 +1904,10 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1074,6 +1934,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1089,6 +1970,182 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>78655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7134225" y="238125"/>
+          <a:ext cx="5705475" cy="4364905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>102235</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10696575" y="476250"/>
+          <a:ext cx="2159635" cy="1592580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>765578</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10696575" y="2857499"/>
+          <a:ext cx="5353050" cy="5051829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11534775" y="5534025"/>
+          <a:ext cx="4314825" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1356,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1366,7 +2423,7 @@
     <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1376,23 +2433,23 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1407,7 +2464,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="25"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1417,7 +2474,9 @@
       <c r="D4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
@@ -1450,10 +2509,10 @@
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -1462,35 +2521,35 @@
       <c r="D7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="26"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="26"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="29"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="26"/>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1499,29 +2558,29 @@
       <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="26"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="25"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
@@ -1554,7 +2613,7 @@
       <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -1566,12 +2625,12 @@
       <c r="D15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="25"/>
+      <c r="E15" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="35"/>
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
@@ -1581,10 +2640,10 @@
       <c r="D16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="32"/>
+      <c r="E16" s="30"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -1599,7 +2658,7 @@
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="25"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="7" t="s">
         <v>7</v>
       </c>
@@ -1609,10 +2668,12 @@
       <c r="D18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="24" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -1626,8 +2687,8 @@
       </c>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="25"/>
+    <row r="20" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="35"/>
       <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
@@ -1637,7 +2698,9 @@
       <c r="D20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
@@ -1686,6 +2749,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="E7:E12"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="B7:B9"/>
@@ -1693,23 +2758,703 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="25">
+        <v>5</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="25">
+        <v>4316</v>
+      </c>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.4">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="25">
+        <v>7</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="25">
+        <v>8</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="G9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="25">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="25">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="25">
+        <v>11</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="25">
+        <v>12</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="25">
+        <v>13</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="25">
+        <v>14</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="25">
+        <v>15</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="25">
+        <v>16</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="25">
+        <v>17</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="25">
+        <v>70</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="25">
+        <v>18</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="25">
+        <v>19</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="25">
+        <v>20</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="25">
+        <v>17</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="25">
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="25">
+        <v>11</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="25">
+        <v>22</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="25">
+        <v>23</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="25">
+        <v>25</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="25">
+        <v>26</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A28" s="25">
+        <v>27</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" s="25"/>
+    </row>
+    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A29" s="25">
+        <v>28</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="25"/>
+    </row>
+    <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A30" s="25">
+        <v>29</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="25"/>
+    </row>
+    <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A31" s="25">
+        <v>30</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="25">
+        <v>2</v>
+      </c>
+      <c r="E31" s="25"/>
+    </row>
+    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A32" s="25">
+        <v>31</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" s="25"/>
+    </row>
+    <row r="33" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A33" s="25">
+        <v>32</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="25">
+        <v>2</v>
+      </c>
+      <c r="E33" s="25"/>
+    </row>
+    <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A34" s="25">
+        <v>33</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="25"/>
+    </row>
+    <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A35" s="25">
+        <v>34</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+    </row>
+    <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A36" s="25">
+        <v>35</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="25"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1724,45 +3469,45 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>80</v>
-      </c>
       <c r="H3" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
@@ -1771,10 +3516,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -1782,12 +3527,12 @@
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
       <c r="I5" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -1799,14 +3544,14 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
@@ -1815,7 +3560,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -1827,23 +3572,23 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -1855,10 +3600,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1869,24 +3614,24 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1895,33 +3640,33 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="2:9" ht="75" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B14" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I14" s="20"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
@@ -1929,15 +3674,15 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="20" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
@@ -1945,15 +3690,15 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -1961,12 +3706,12 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
@@ -1975,28 +3720,28 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
@@ -2005,15 +3750,15 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
@@ -2021,10 +3766,10 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
@@ -2035,7 +3780,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
@@ -2047,7 +3792,7 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
@@ -2059,7 +3804,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
@@ -2071,12 +3816,12 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
@@ -2085,7 +3830,7 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
@@ -2097,7 +3842,7 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -2109,25 +3854,25 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
@@ -2139,7 +3884,7 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
@@ -2151,7 +3896,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
@@ -2163,7 +3908,7 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -2175,7 +3920,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
@@ -2187,7 +3932,7 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
@@ -2199,7 +3944,7 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B36" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
@@ -2211,7 +3956,7 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
@@ -2223,7 +3968,7 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
@@ -2235,7 +3980,7 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
@@ -2247,10 +3992,10 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
@@ -2261,10 +4006,10 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B41" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
@@ -2275,10 +4020,10 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B42" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
@@ -2289,10 +4034,10 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
@@ -2303,10 +4048,10 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
@@ -2317,10 +4062,10 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B45" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
@@ -2331,10 +4076,10 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B46" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
@@ -2345,10 +4090,10 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B47" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
@@ -2359,10 +4104,10 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B48" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
@@ -2373,10 +4118,10 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B49" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
@@ -2387,10 +4132,10 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B50" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
@@ -2401,10 +4146,10 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
@@ -2415,10 +4160,10 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B52" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
@@ -2432,4 +4177,559 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.4">
+      <c r="A4" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+    </row>
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A5" s="25">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="25">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="25"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="25">
+        <v>6</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+    </row>
+    <row r="3" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="25">
+        <v>3</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="25">
+        <v>4</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="25"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="25">
+        <v>1</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="25">
+        <v>7</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="25">
+        <v>8</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="25">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="25">
+        <v>10</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/要件定義書/C表作成メモ.xlsx
+++ b/要件定義書/C表作成メモ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27375" windowHeight="11085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27375" windowHeight="11085" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="C表作成自動化対象" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="288">
   <si>
     <t>C表作成自動化</t>
     <rPh sb="1" eb="4">
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>Labeling Detail</t>
-  </si>
-  <si>
-    <t>Detail</t>
   </si>
   <si>
     <t>〇</t>
@@ -343,26 +340,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Carcass ply number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【円弧配列】図面登録時の画面項目「structure」</t>
-    <rPh sb="0" eb="6">
-      <t>｢エンコハイレツ｣</t>
-    </rPh>
-    <rPh sb="6" eb="11">
-      <t>ズメントウロクジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AT-B図面登録時の入力</t>
     <rPh sb="4" eb="9">
       <t>ズメントウロクジ</t>
@@ -383,31 +360,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>書き換え可能。No1が変わると連動するが書き換えを行っていると連動は解除</t>
-    <rPh sb="11" eb="12">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>レンドウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>レンドウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カイジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[Pagetitlle002]</t>
   </si>
   <si>
@@ -451,16 +403,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>事前入力の内容及び、登録画面</t>
-    <rPh sb="7" eb="8">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>トウロクガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
@@ -468,34 +410,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイヤのサイズ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録画面：Structure</t>
-    <rPh sb="0" eb="4">
-      <t>トウロクガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイヤの用途記号</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>type division</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「チューブタイプタイヤ」or「チューブレスタイヤ（TL)」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tire Type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bead structure</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -503,17 +418,6 @@
     <rPh sb="0" eb="2">
       <t>アンゼン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不明</t>
-    <rPh sb="0" eb="2">
-      <t>フメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Carcass+Breaker</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -537,17 +441,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（例）2P+2B+2C</t>
-    <rPh sb="1" eb="2">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モデルタイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AdvanceCAD</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -642,9 +535,6 @@
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>examination1</t>
   </si>
   <si>
     <t>No</t>
@@ -1505,12 +1395,477 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>R-P/C番号（生産用C表番号）</t>
+    <rPh sb="8" eb="11">
+      <t>セイサンヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ヒョウバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TM図面番号</t>
+    <rPh sb="2" eb="4">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TWI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B図面制作者名</t>
+    <rPh sb="4" eb="6">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>セイサクシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B図面チェック担当者名</t>
+    <rPh sb="10" eb="14">
+      <t>タントウシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B図面承認者名</t>
+    <rPh sb="6" eb="9">
+      <t>ショウニンシャ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビード構造</t>
+    <rPh sb="3" eb="5">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繊維区分</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bead structure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C-TMP1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C-TMP1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/02/01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2P+2B+2C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Carcass+Breaker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発行部署</t>
+    <rPh sb="0" eb="4">
+      <t>ハッコウブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造</t>
+    <rPh sb="0" eb="2">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤ種類</t>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用途1</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用途2</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用途3</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤ区分
+「チューブタイプタイヤ」or「チューブレスタイヤ（TL)」</t>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイド区分</t>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤのサイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プライ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーカスプライ枚数</t>
+    <rPh sb="7" eb="9">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーカス素材</t>
+    <rPh sb="4" eb="6">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルト枚数1</t>
+    <rPh sb="3" eb="5">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルト材質2</t>
+    <rPh sb="3" eb="5">
+      <t>ザイシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルト材質1</t>
+    <rPh sb="3" eb="5">
+      <t>ザイシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルト枚数2</t>
+    <rPh sb="3" eb="5">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルト枚数3</t>
+    <rPh sb="3" eb="5">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルト材質3</t>
+    <rPh sb="3" eb="5">
+      <t>ザイシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページタイトル1の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページタイトル2の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページタイトル3の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページタイトル4の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページタイトル5の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページタイトル6の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページタイトル7の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページタイトル8の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページタイトル9の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページタイトル10の内容</t>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページタイトル11の内容</t>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページタイトル12の内容</t>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページタイトル19の内容</t>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R-P/C-23131</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B-17185-00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TM-18518-00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSCV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LT245/70R17 119S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Carcass ply number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Detail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[examination1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル 「102 examination1」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル 「105 Approval」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル 「101 Creator」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル 「7 Mold No.」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録画面「Structure」</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tire Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録画面「Tire Type」</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル「201 Model maint title」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル 「4 Figure number」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル「6 Side Category」？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WADA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SAKAMOTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KAWAKAMI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル（＝パターン？）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル「1 Size」（「Tire Type」の記入が図面あり）、
+登録画面「Tire Type」＋「Size」</t>
+    <rPh sb="31" eb="33">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1544,6 +1899,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1831,7 +2194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1901,13 +2264,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1934,25 +2318,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2413,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2433,23 +2802,23 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2459,12 +2828,12 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="35"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -2472,10 +2841,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2489,7 +2858,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="13"/>
     </row>
@@ -2504,83 +2873,83 @@
         <v>2</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="31" t="s">
+      <c r="E7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="36"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="27"/>
+        <v>24</v>
+      </c>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="36"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="27"/>
+        <v>25</v>
+      </c>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="36"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="27"/>
+        <v>20</v>
+      </c>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="36"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="27"/>
+        <v>22</v>
+      </c>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="35"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="28"/>
+        <v>26</v>
+      </c>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
@@ -2593,7 +2962,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="13"/>
     </row>
@@ -2608,29 +2977,29 @@
         <v>2</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>216</v>
+        <v>23</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="35"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
@@ -2638,12 +3007,12 @@
         <v>2</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="30"/>
+        <v>27</v>
+      </c>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -2653,12 +3022,12 @@
         <v>2</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="35"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="7" t="s">
         <v>7</v>
       </c>
@@ -2666,14 +3035,14 @@
         <v>2</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>217</v>
+        <v>26</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -2683,12 +3052,12 @@
         <v>2</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="35"/>
+    <row r="20" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="30"/>
       <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
@@ -2696,15 +3065,15 @@
         <v>2</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>5</v>
@@ -2713,7 +3082,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="13"/>
     </row>
@@ -2728,7 +3097,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="18"/>
     </row>
@@ -2743,14 +3112,12 @@
         <v>2</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A17:A18"/>
     <mergeCell ref="E7:E12"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="B7:B9"/>
@@ -2758,6 +3125,8 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2769,7 +3138,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2781,35 +3150,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>33</v>
+      <c r="A1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="24">
         <v>5</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>214</v>
+      <c r="E2" s="24" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2835,556 +3204,556 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="24">
+        <v>4316</v>
+      </c>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.4">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="24">
+        <v>7</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="24">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="G9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="24">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="24">
+        <v>10</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="24">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="24">
+        <v>12</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="24">
+        <v>13</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="24">
+        <v>14</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="24">
+        <v>15</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="24">
+        <v>16</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="24">
+        <v>17</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="24">
+        <v>70</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="24">
+        <v>18</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="24">
+        <v>19</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="24">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="24">
+        <v>17</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="24">
+        <v>21</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="38" t="s">
+      <c r="C22" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="24">
+        <v>11</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="24">
+        <v>22</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="24">
+        <v>24</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="24">
+        <v>25</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="24">
+        <v>26</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A28" s="24">
+        <v>27</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="24"/>
+    </row>
+    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A29" s="24">
+        <v>28</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A30" s="24">
+        <v>29</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A31" s="24">
+        <v>30</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="24">
+        <v>2</v>
+      </c>
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A32" s="24">
+        <v>31</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A33" s="24">
+        <v>32</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="24">
+        <v>2</v>
+      </c>
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A34" s="24">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="25">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="G2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="25">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="25" t="s">
+      <c r="B34" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="25">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="25">
-        <v>4316</v>
-      </c>
-      <c r="E4" s="25"/>
-    </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.4">
-      <c r="A5" s="25">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="25">
-        <v>5</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="25">
-        <v>6</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="25">
-        <v>7</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="25">
-        <v>8</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="G9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="25">
-        <v>9</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="25"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="25">
-        <v>10</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="25">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="25">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="25">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="25">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" s="25"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="25">
-        <v>15</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="25">
-        <v>16</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="25">
-        <v>17</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" s="25">
-        <v>70</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="25">
-        <v>18</v>
-      </c>
-      <c r="B19" s="25" t="s">
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A35" s="24">
+        <v>34</v>
+      </c>
+      <c r="B35" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="25">
-        <v>19</v>
-      </c>
-      <c r="B20" s="25" t="s">
+      <c r="C35" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A36" s="24">
+        <v>35</v>
+      </c>
+      <c r="B36" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="25">
-        <v>20</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="25">
-        <v>17</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="25">
-        <v>21</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="25">
-        <v>11</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="25">
-        <v>22</v>
-      </c>
-      <c r="B23" s="25" t="s">
+      <c r="C36" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="25">
-        <v>23</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="25">
-        <v>25</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="25">
-        <v>26</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A28" s="25">
-        <v>27</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A29" s="25">
-        <v>28</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" s="25"/>
-    </row>
-    <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A30" s="25">
-        <v>29</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30" s="25"/>
-    </row>
-    <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A31" s="25">
-        <v>30</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D31" s="25">
-        <v>2</v>
-      </c>
-      <c r="E31" s="25"/>
-    </row>
-    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A32" s="25">
-        <v>31</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="E32" s="25"/>
-    </row>
-    <row r="33" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A33" s="25">
-        <v>32</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D33" s="25">
-        <v>2</v>
-      </c>
-      <c r="E33" s="25"/>
-    </row>
-    <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A34" s="25">
-        <v>33</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="E34" s="25"/>
-    </row>
-    <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A35" s="25">
-        <v>34</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-    </row>
-    <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A36" s="25">
-        <v>35</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3398,7 +3767,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3409,36 +3778,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>33</v>
+      <c r="A1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="25">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="E2" s="25"/>
+      <c r="B2" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3450,11 +3819,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26:B28"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3462,176 +3831,210 @@
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>113</v>
+      <c r="B3" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>279</v>
+      </c>
       <c r="I4" s="20"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="F5" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="E6" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="F6" s="28"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>279</v>
+      </c>
       <c r="I7" s="20"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="E8" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>252</v>
+      </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="20"/>
+        <v>73</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>253</v>
+      </c>
       <c r="G9" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" s="20"/>
+        <v>280</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="I9" s="20"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="E10" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>273</v>
+      </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="20" t="s">
+        <v>208</v>
+      </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="I12" s="20"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3642,106 +4045,122 @@
     </row>
     <row r="14" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B14" s="20" t="s">
-        <v>104</v>
+        <v>219</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="20"/>
+        <v>92</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>218</v>
+      </c>
       <c r="G14" s="20"/>
-      <c r="H14" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="H14" s="20"/>
       <c r="I14" s="20"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="20" t="s">
+        <v>209</v>
+      </c>
       <c r="F15" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="20"/>
+        <v>283</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>272</v>
+      </c>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="20" t="s">
-        <v>117</v>
+        <v>269</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="20" t="s">
+        <v>210</v>
+      </c>
       <c r="F16" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="20"/>
+        <v>284</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>270</v>
+      </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="E17" s="20" t="s">
+        <v>211</v>
+      </c>
       <c r="F17" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="20"/>
+        <v>285</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>271</v>
+      </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="20"/>
+        <v>91</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>255</v>
+      </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="E19" s="20" t="s">
+        <v>221</v>
+      </c>
       <c r="F19" s="20" t="s">
-        <v>96</v>
+        <v>256</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20" t="s">
-        <v>103</v>
+        <v>222</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
@@ -3750,53 +4169,67 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="20" t="s">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="20"/>
+        <v>257</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>276</v>
+      </c>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="E22" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>277</v>
+      </c>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
+      <c r="E23" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>259</v>
+      </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
+      <c r="E24" s="28" t="s">
+        <v>225</v>
+      </c>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
@@ -3804,79 +4237,95 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="E25" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>282</v>
+      </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B26" s="20" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="20"/>
+      <c r="E26" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>260</v>
+      </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="E27" s="20" t="s">
+        <v>228</v>
+      </c>
       <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="G27" s="42" t="s">
+        <v>281</v>
+      </c>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+      <c r="E28" s="25" t="s">
+        <v>213</v>
+      </c>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B29" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20" t="s">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="H29" s="20"/>
+        <v>261</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="I29" s="20"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+      <c r="E30" s="20" t="s">
+        <v>230</v>
+      </c>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
@@ -3884,95 +4333,125 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="20" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="E31" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>262</v>
+      </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" s="20" t="s">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="E32" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>263</v>
+      </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="E33" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>264</v>
+      </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
+      <c r="E34" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="20">
+        <v>2</v>
+      </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="E35" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>265</v>
+      </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B36" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
+      <c r="E36" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" s="20">
+        <v>2</v>
+      </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
+      <c r="E37" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>266</v>
+      </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
+      <c r="E38" s="28" t="s">
+        <v>237</v>
+      </c>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
@@ -3980,11 +4459,13 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
+      <c r="E39" s="28" t="s">
+        <v>238</v>
+      </c>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
@@ -3992,184 +4473,262 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
+      <c r="E40" s="20" t="s">
+        <v>239</v>
+      </c>
       <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
+      <c r="G40" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>279</v>
+      </c>
       <c r="I40" s="20"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B41" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
+      <c r="E41" s="28" t="s">
+        <v>240</v>
+      </c>
       <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
+      <c r="G41" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>279</v>
+      </c>
       <c r="I41" s="20"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B42" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
+      <c r="E42" s="28" t="s">
+        <v>241</v>
+      </c>
       <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
+      <c r="G42" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>279</v>
+      </c>
       <c r="I42" s="20"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
+      <c r="E43" s="28" t="s">
+        <v>242</v>
+      </c>
       <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
+      <c r="G43" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H43" s="28" t="s">
+        <v>279</v>
+      </c>
       <c r="I43" s="20"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
+      <c r="E44" s="28" t="s">
+        <v>243</v>
+      </c>
       <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
+      <c r="G44" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H44" s="28" t="s">
+        <v>279</v>
+      </c>
       <c r="I44" s="20"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B45" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
+      <c r="E45" s="28" t="s">
+        <v>244</v>
+      </c>
       <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
+      <c r="G45" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>279</v>
+      </c>
       <c r="I45" s="20"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B46" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
+      <c r="E46" s="28" t="s">
+        <v>245</v>
+      </c>
       <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
+      <c r="G46" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>279</v>
+      </c>
       <c r="I46" s="20"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B47" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
+      <c r="E47" s="28" t="s">
+        <v>246</v>
+      </c>
       <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
+      <c r="G47" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>279</v>
+      </c>
       <c r="I47" s="20"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B48" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
+      <c r="E48" s="28" t="s">
+        <v>247</v>
+      </c>
       <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
+      <c r="G48" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>279</v>
+      </c>
       <c r="I48" s="20"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B49" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
+      <c r="E49" s="28" t="s">
+        <v>248</v>
+      </c>
       <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
+      <c r="G49" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>279</v>
+      </c>
       <c r="I49" s="20"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B50" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
+      <c r="E50" s="28" t="s">
+        <v>249</v>
+      </c>
       <c r="F50" s="20"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="20"/>
+      <c r="G50" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>279</v>
+      </c>
       <c r="I50" s="20"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
+      <c r="E51" s="28" t="s">
+        <v>250</v>
+      </c>
       <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
+      <c r="G51" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>279</v>
+      </c>
       <c r="I51" s="20"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B52" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
+      <c r="E52" s="28" t="s">
+        <v>251</v>
+      </c>
       <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
+      <c r="G52" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>279</v>
+      </c>
       <c r="I52" s="20"/>
     </row>
   </sheetData>
@@ -4196,93 +4755,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="38" t="s">
+      <c r="A1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.4">
+      <c r="A4" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+    </row>
+    <row r="5" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="24">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="24">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="22" t="s">
         <v>112</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="25">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="25">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="A4" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-    </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A5" s="25">
-        <v>3</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="25">
-        <v>4</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="22" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4310,36 +4869,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>33</v>
+      <c r="A1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="25">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="25"/>
+      <c r="B2" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4364,54 +4923,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="24">
+        <v>6</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="25">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="C3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="25">
-        <v>6</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="25">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>136</v>
+      <c r="E3" s="24" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4437,59 +4996,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>33</v>
+      <c r="A1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="A2" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>3</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="25"/>
+      <c r="B3" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="24"/>
       <c r="E3" s="22" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>4</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="25"/>
+        <v>122</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="24"/>
       <c r="E4" s="22" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4518,36 +5077,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="25">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="25"/>
+      <c r="C2" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4572,159 +5131,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>33</v>
+      <c r="A1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="25">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="25">
+        <v>188</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="24">
         <v>1</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>203</v>
+      <c r="E2" s="24" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25" t="s">
-        <v>173</v>
+      <c r="B3" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25" t="s">
-        <v>173</v>
+      <c r="B4" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <v>4</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
-        <v>173</v>
+      <c r="B5" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="25">
+      <c r="A6" s="24">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25" t="s">
-        <v>173</v>
+      <c r="B6" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="25">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25" t="s">
-        <v>173</v>
+      <c r="B7" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="25">
+      <c r="A8" s="24">
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25" t="s">
-        <v>173</v>
+      <c r="B8" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25" t="s">
-        <v>211</v>
+      <c r="B9" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="25">
+      <c r="B10" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="24">
         <v>10</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/要件定義書/C表作成メモ.xlsx
+++ b/要件定義書/C表作成メモ.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27375" windowHeight="11085" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27375" windowHeight="11085"/>
   </bookViews>
   <sheets>
-    <sheet name="C表作成自動化対象" sheetId="1" r:id="rId1"/>
-    <sheet name="Load Drawingコマンド入力値一覧" sheetId="3" r:id="rId2"/>
-    <sheet name="FrameDataコマンド入力値一覧" sheetId="2" r:id="rId3"/>
-    <sheet name="Serialコマンド入力値一覧" sheetId="4" r:id="rId4"/>
-    <sheet name="Mold No.コマンド入力値一覧 " sheetId="5" r:id="rId5"/>
-    <sheet name="TWIコマンド入力値一覧" sheetId="6" r:id="rId6"/>
-    <sheet name="Platformコマンド入力値一覧 " sheetId="7" r:id="rId7"/>
-    <sheet name=" Safety Detailコマンド入力値一覧" sheetId="9" r:id="rId8"/>
-    <sheet name="Labeling Detailコマンド一覧" sheetId="11" r:id="rId9"/>
-    <sheet name="Detailコマンド一覧" sheetId="12" r:id="rId10"/>
-    <sheet name="Save Drawingコマンド一覧" sheetId="13" r:id="rId11"/>
+    <sheet name="機能概要フロー" sheetId="14" r:id="rId1"/>
+    <sheet name="C表作成自動化対象" sheetId="1" r:id="rId2"/>
+    <sheet name="Load Drawingコマンド入力値一覧" sheetId="3" r:id="rId3"/>
+    <sheet name="FrameDataコマンド入力値一覧" sheetId="2" r:id="rId4"/>
+    <sheet name="Serialコマンド入力値一覧" sheetId="4" r:id="rId5"/>
+    <sheet name="Mold No.コマンド入力値一覧 " sheetId="5" r:id="rId6"/>
+    <sheet name="TWIコマンド入力値一覧" sheetId="6" r:id="rId7"/>
+    <sheet name="Platformコマンド入力値一覧 " sheetId="7" r:id="rId8"/>
+    <sheet name=" Safety Detailコマンド入力値一覧" sheetId="9" r:id="rId9"/>
+    <sheet name="Labeling Detailコマンド一覧" sheetId="11" r:id="rId10"/>
+    <sheet name="Detailコマンド一覧" sheetId="12" r:id="rId11"/>
+    <sheet name="Save Drawingコマンド一覧" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2282,13 +2283,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
@@ -2318,11 +2319,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2342,6 +2343,5192 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="217" name="角丸四角形 216"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14128750" y="942974"/>
+          <a:ext cx="3317875" cy="17440276"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3818"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>図面読み込み機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>74887</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="192" name="角丸四角形 191"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314825" y="18068926"/>
+          <a:ext cx="5361262" cy="2905124"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3818"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>必須操作</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>74887</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="角丸四角形 188"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314825" y="15973426"/>
+          <a:ext cx="5361262" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3818"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>任意操作</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>84412</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1574800" y="1657350"/>
+          <a:ext cx="5335862" cy="4838700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3818"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>必須操作</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>84412</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4324350" y="6905625"/>
+          <a:ext cx="5361262" cy="6619875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3818"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>任意操作（順不同）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>84412</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4324350" y="13811251"/>
+          <a:ext cx="5361262" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3818"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>必須操作</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>316050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 定義済み処理 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7259775" y="1514475"/>
+          <a:ext cx="1971675" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>図面読み込み機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>316050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート: 定義済み処理 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7259775" y="2943225"/>
+          <a:ext cx="1971675" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>図面落とし込み</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>機能</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>316050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="フローチャート: 定義済み処理 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7259775" y="4419600"/>
+          <a:ext cx="1971675" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>図面枠作成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>機能</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>316050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フローチャート: 定義済み処理 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7259775" y="6838950"/>
+          <a:ext cx="1971675" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セリアル定義</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>機能</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401775</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>316050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フローチャート: 定義済み処理 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7259775" y="8039100"/>
+          <a:ext cx="1971675" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>モールド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>No</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>定義</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>機能</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401775</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>316050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート: 定義済み処理 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7259775" y="9210675"/>
+          <a:ext cx="1971675" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TWI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マーク定義</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>機能</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401775</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>316050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フローチャート: 定義済み処理 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4516575" y="10972800"/>
+          <a:ext cx="1971675" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Platform</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マーク類定義</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>機能</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401775</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>316050</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="フローチャート: 定義済み処理 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7259775" y="11706225"/>
+          <a:ext cx="1971675" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Safety Detail</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マーク類定義機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401775</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>316050</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="フローチャート: 定義済み処理 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7259775" y="14354175"/>
+          <a:ext cx="1971675" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>詳細化（自動）機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401775</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>316050</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="フローチャート: 定義済み処理 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7259775" y="16516350"/>
+          <a:ext cx="1971675" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>詳細化（手動）機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401775</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>316050</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="フローチャート: 定義済み処理 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7259775" y="18554700"/>
+          <a:ext cx="1971675" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>各ピクチャの配置機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401775</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>316050</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="フローチャート: 定義済み処理 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7259775" y="19888200"/>
+          <a:ext cx="1971675" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>図面登録機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="フローチャート: 手操作入力 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="133350"/>
+          <a:ext cx="1457325" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>AutoCAD</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コマンド実行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="カギ線コネクタ 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4930050" y="151537"/>
+          <a:ext cx="1452563" cy="3206887"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="カギ線コネクタ 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4213294" y="868293"/>
+          <a:ext cx="2886075" cy="3206887"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401774</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="カギ線コネクタ 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3475106" y="1606481"/>
+          <a:ext cx="4362450" cy="3206887"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401774</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="カギ線コネクタ 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2265431" y="2816156"/>
+          <a:ext cx="6781800" cy="3206887"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401774</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="カギ線コネクタ 53"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1665356" y="3416231"/>
+          <a:ext cx="7981950" cy="3206887"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401775</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="カギ線コネクタ 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1079569" y="4002018"/>
+          <a:ext cx="9153525" cy="3206887"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401774</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>233363</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="カギ線コネクタ 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="477112" y="4604475"/>
+          <a:ext cx="10358438" cy="3206887"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401775</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="カギ線コネクタ 62"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-168206" y="5249793"/>
+          <a:ext cx="11649075" cy="3206887"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401775</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="カギ線コネクタ 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-1015931" y="6535668"/>
+          <a:ext cx="13344525" cy="3206887"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401774</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="カギ線コネクタ 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-2097019" y="7616756"/>
+          <a:ext cx="15506700" cy="3206887"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401775</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>204787</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="カギ線コネクタ 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-3118575" y="8638312"/>
+          <a:ext cx="17549813" cy="3206887"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>401774</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="カギ線コネクタ 73"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-3782944" y="9302681"/>
+          <a:ext cx="18878550" cy="3206887"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>382725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>297000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="正方形/長方形 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14717850" y="2587625"/>
+          <a:ext cx="1962150" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>INII</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイル読み込み</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>325575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>239850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="正方形/長方形 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10612575" y="2943225"/>
+          <a:ext cx="1971675" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>INII</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイル読み込み</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>20775</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>620850</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="正方形/長方形 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10307775" y="14106525"/>
+          <a:ext cx="1971675" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>INII</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイル読み込み</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>20775</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>620850</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="正方形/長方形 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10307775" y="16506825"/>
+          <a:ext cx="1971675" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>INII</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイル読み込み</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>20775</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>620850</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="正方形/長方形 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10307775" y="19497675"/>
+          <a:ext cx="1971675" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>INII</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイル読み込み</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>477975</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>392250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="正方形/長方形 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10079175" y="10410825"/>
+          <a:ext cx="1971675" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>INII</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイル読み込み</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="正方形/長方形 158"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552950" y="2514600"/>
+          <a:ext cx="1819275" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Brand Drawing</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="正方形/長方形 159"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="3971925"/>
+          <a:ext cx="1819275" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Pre Process</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="正方形/長方形 160"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="5372100"/>
+          <a:ext cx="1819275" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Frame Data - Create</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="正方形/長方形 161"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552950" y="7696200"/>
+          <a:ext cx="1819275" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ア</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Serial</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="正方形/長方形 162"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="8858250"/>
+          <a:ext cx="1819275" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>イ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mold No.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="正方形/長方形 163"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="9953625"/>
+          <a:ext cx="1819275" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ウ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TWI</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="正方形/長方形 164"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="11096625"/>
+          <a:ext cx="1819275" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>エ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Platform</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="正方形/長方形 165"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="12392025"/>
+          <a:ext cx="1819275" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>オ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Safety Detail - Create</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="正方形/長方形 166"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4667250" y="14497050"/>
+          <a:ext cx="1819275" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ア</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Labeling Detail - Create</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="正方形/長方形 167"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="16640175"/>
+          <a:ext cx="1819275" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>イ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Detail - Create</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="正方形/長方形 168"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="18726150"/>
+          <a:ext cx="1819275" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>⑥</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Drawing Pos.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="正方形/長方形 169"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4772025" y="20059650"/>
+          <a:ext cx="1819275" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>⑦</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Save Drawing</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="角丸四角形 195"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10315575" y="704850"/>
+          <a:ext cx="3333750" cy="6400800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3818"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>図面読み込み機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>611325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>525600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="正方形/長方形 196"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10898325" y="2438400"/>
+          <a:ext cx="1971675" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>INII</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイル読み込み</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="198" name="楕円 197"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10763249" y="1504950"/>
+          <a:ext cx="1752601" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="フローチャート: 手操作入力 198"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11001374" y="3543299"/>
+          <a:ext cx="1514475" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>AT-B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>図番入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="200" name="楕円 199"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10848974" y="6019800"/>
+          <a:ext cx="1752601" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>487500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>401775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="201" name="正方形/長方形 200"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10774500" y="4791075"/>
+          <a:ext cx="1971675" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>図面読み込み</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>225563</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="204" name="直線矢印コネクタ 203"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="198" idx="4"/>
+          <a:endCxn id="197" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11639550" y="2114550"/>
+          <a:ext cx="244613" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>225563</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60007</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="205" name="直線矢印コネクタ 204"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="197" idx="2"/>
+          <a:endCxn id="199" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11758612" y="3343275"/>
+          <a:ext cx="125551" cy="288607"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>101738</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="208" name="直線矢印コネクタ 207"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="199" idx="2"/>
+          <a:endCxn id="201" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11758612" y="4429124"/>
+          <a:ext cx="1726" cy="361951"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>101738</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="211" name="直線矢印コネクタ 210"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="201" idx="2"/>
+          <a:endCxn id="200" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11725275" y="5695950"/>
+          <a:ext cx="35063" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="218" name="楕円 217"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14573249" y="1647825"/>
+          <a:ext cx="1746251" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>69849</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="219" name="楕円 218"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15087599" y="17703800"/>
+          <a:ext cx="1743076" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>398600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>312875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="220" name="正方形/長方形 219"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14733725" y="3937000"/>
+          <a:ext cx="1962150" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>編集文字のない</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PIC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>398600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>312875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="221" name="正方形/長方形 220"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14733725" y="5143500"/>
+          <a:ext cx="1962150" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>取り消し文字削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>446225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>360500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="225" name="正方形/長方形 224"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14781350" y="6334125"/>
+          <a:ext cx="1962150" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文字ＰＩＣ Ｘ削除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>398600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>312875</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="226" name="正方形/長方形 225"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14733725" y="7651750"/>
+          <a:ext cx="1962150" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文字ＰＩＣ取り消し解除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>509725</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>424000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="229" name="正方形/長方形 228"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14844850" y="8921750"/>
+          <a:ext cx="1962150" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PIC2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の不要アイテムの削除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>167724</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>204304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>314740</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>96862</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="228" name="線吹き出し 1 (枠付き) 227"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17354137" y="8611152"/>
+          <a:ext cx="2896842" cy="1093536"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 51268"/>
+            <a:gd name="adj2" fmla="val 951"/>
+            <a:gd name="adj3" fmla="val 77308"/>
+            <a:gd name="adj4" fmla="val -14450"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クラス（＝画層）、レビジョン、線種、線幅で対象を判別</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>541475</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>455750</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="231" name="正方形/長方形 230"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14876600" y="11604625"/>
+          <a:ext cx="1962150" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ブランド径線・ラジアル線 非表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>231775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="230" name="片側の 2 つの角を切り取った四角形 229"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14763750" y="10271125"/>
+          <a:ext cx="2301875" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 34028"/>
+            <a:gd name="adj2" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PIC2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　ループ　開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>541475</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>455750</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="233" name="正方形/長方形 232"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14876600" y="12874625"/>
+          <a:ext cx="1962150" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>最小円作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>573225</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>487500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="234" name="正方形/長方形 233"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14908350" y="14033500"/>
+          <a:ext cx="1962150" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>経線</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>636725</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>551000</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="235" name="正方形/長方形 234"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14971850" y="15240000"/>
+          <a:ext cx="1962150" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>最外円作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>604975</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>519250</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="236" name="正方形/長方形 235"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14940100" y="16478250"/>
+          <a:ext cx="1962150" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>サブモデル読込み</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>460374</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>603249</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 書類 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20939124" y="793749"/>
+          <a:ext cx="1508125" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BR_ATRBUT.ini</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="フローチャート: 書類 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21447124" y="1349374"/>
+          <a:ext cx="1508125" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C_BrandSet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>.ini</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>159441</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>306457</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>63731</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="線吹き出し 1 (枠付き) 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17345854" y="12421152"/>
+          <a:ext cx="2896842" cy="1093536"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52783"/>
+            <a:gd name="adj2" fmla="val 93"/>
+            <a:gd name="adj3" fmla="val 77308"/>
+            <a:gd name="adj4" fmla="val -14450"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>直前の処理でラジアル線を非表示にする際に最小円を識別している。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2382,7 +7569,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2780,6 +7967,831 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC45" sqref="AC45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="24">
+        <v>1</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="24">
+        <v>7</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="24">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="24">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="24">
+        <v>10</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="24">
+        <v>5</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="24">
+        <v>4316</v>
+      </c>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.4">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="24">
+        <v>7</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="24">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="G9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="24">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="24">
+        <v>10</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="24">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="24">
+        <v>12</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="24">
+        <v>13</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="24">
+        <v>14</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="24">
+        <v>15</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="24">
+        <v>16</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="24">
+        <v>17</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="24">
+        <v>70</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="24">
+        <v>18</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="24">
+        <v>19</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="24">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="24">
+        <v>17</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="24">
+        <v>21</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="24">
+        <v>11</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="24">
+        <v>22</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="24">
+        <v>24</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="24">
+        <v>25</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="24">
+        <v>26</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A28" s="24">
+        <v>27</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="24"/>
+    </row>
+    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A29" s="24">
+        <v>28</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A30" s="24">
+        <v>29</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A31" s="24">
+        <v>30</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="24">
+        <v>2</v>
+      </c>
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A32" s="24">
+        <v>31</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A33" s="24">
+        <v>32</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="24">
+        <v>2</v>
+      </c>
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A34" s="24">
+        <v>33</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A35" s="24">
+        <v>34</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A36" s="24">
+        <v>35</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
@@ -2818,7 +8830,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2833,7 +8845,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="30"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -2878,7 +8890,7 @@
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="41" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="38" t="s">
@@ -2895,7 +8907,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="31"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="39"/>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -2906,7 +8918,7 @@
       <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="31"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="39"/>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -2917,7 +8929,7 @@
       <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="31"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="39" t="s">
         <v>8</v>
       </c>
@@ -2930,7 +8942,7 @@
       <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="31"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="39"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -2941,7 +8953,7 @@
       <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="40"/>
       <c r="C12" s="7" t="s">
         <v>7</v>
@@ -2982,7 +8994,7 @@
       <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="41" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -2999,7 +9011,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="30"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
@@ -3027,7 +9039,7 @@
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="30"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="7" t="s">
         <v>7</v>
       </c>
@@ -3042,7 +9054,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="41" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -3057,7 +9069,7 @@
       <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="30"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
@@ -3118,651 +9130,22 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A17:A18"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="24">
-        <v>5</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="24">
-        <v>2</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="24"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="24">
-        <v>3</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="24">
-        <v>4316</v>
-      </c>
-      <c r="E4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.4">
-      <c r="A5" s="24">
-        <v>4</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="24"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="24">
-        <v>5</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="24"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="24">
-        <v>6</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="24">
-        <v>7</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="24">
-        <v>8</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="G9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="24">
-        <v>9</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" s="24"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="24">
-        <v>10</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="24">
-        <v>11</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="24">
-        <v>12</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="24">
-        <v>13</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="24">
-        <v>14</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="24"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="24">
-        <v>15</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="24">
-        <v>16</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="24">
-        <v>17</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="24">
-        <v>70</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="24">
-        <v>18</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="24">
-        <v>19</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="24">
-        <v>20</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D21" s="24">
-        <v>17</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="24">
-        <v>21</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" s="24">
-        <v>11</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="24">
-        <v>22</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="24">
-        <v>24</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="24">
-        <v>25</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="24">
-        <v>26</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A28" s="24">
-        <v>27</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="E28" s="24"/>
-    </row>
-    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A29" s="24">
-        <v>28</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="E29" s="24"/>
-    </row>
-    <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A30" s="24">
-        <v>29</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="E30" s="24"/>
-    </row>
-    <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A31" s="24">
-        <v>30</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="24">
-        <v>2</v>
-      </c>
-      <c r="E31" s="24"/>
-    </row>
-    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A32" s="24">
-        <v>31</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="E32" s="24"/>
-    </row>
-    <row r="33" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A33" s="24">
-        <v>32</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="24">
-        <v>2</v>
-      </c>
-      <c r="E33" s="24"/>
-    </row>
-    <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A34" s="24">
-        <v>33</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="E34" s="24"/>
-    </row>
-    <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A35" s="24">
-        <v>34</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-    </row>
-    <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A36" s="24">
-        <v>35</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3815,11 +9198,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4193,7 +9576,7 @@
         <v>96</v>
       </c>
       <c r="D22" s="20"/>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="29" t="s">
         <v>286</v>
       </c>
       <c r="F22" s="20" t="s">
@@ -4277,7 +9660,7 @@
         <v>228</v>
       </c>
       <c r="F27" s="20"/>
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="29" t="s">
         <v>281</v>
       </c>
       <c r="H27" s="20"/>
@@ -4738,7 +10121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -4806,13 +10189,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A5" s="24">
@@ -4853,7 +10236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -4906,7 +10289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -4979,7 +10362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -5013,13 +10396,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A3" s="24">
@@ -5060,7 +10443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -5112,183 +10495,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="24">
-        <v>1</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="24">
-        <v>2</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="24">
-        <v>3</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="24">
-        <v>4</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="24">
-        <v>5</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="24">
-        <v>6</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="24">
-        <v>7</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="24">
-        <v>8</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="24">
-        <v>9</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="24">
-        <v>10</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/要件定義書/C表作成メモ.xlsx
+++ b/要件定義書/C表作成メモ.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="294">
   <si>
     <t>C表作成自動化</t>
     <rPh sb="1" eb="4">
@@ -1859,6 +1859,37 @@
     <rPh sb="38" eb="42">
       <t>トウロクガメン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行必須</t>
+    <rPh sb="0" eb="4">
+      <t>ジッコウヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇
+※どちらか一方</t>
+    <rPh sb="7" eb="9">
+      <t>イッポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1923,7 +1954,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2189,13 +2220,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2286,6 +2404,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2325,6 +2446,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2347,15 +2498,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>440531</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
+      <xdr:rowOff>228598</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>345281</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>198781</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2364,8 +2515,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14128750" y="942974"/>
-          <a:ext cx="3317875" cy="17440276"/>
+          <a:off x="14251781" y="942973"/>
+          <a:ext cx="3357563" cy="19258308"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2523,13 +2674,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>228599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>84412</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2538,8 +2689,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1574800" y="1657350"/>
-          <a:ext cx="5335862" cy="4838700"/>
+          <a:off x="1581150" y="1657349"/>
+          <a:ext cx="5361262" cy="6086475"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2580,14 +2731,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>84412</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2596,8 +2747,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4324350" y="6905625"/>
-          <a:ext cx="5361262" cy="6619875"/>
+          <a:off x="1581150" y="8115300"/>
+          <a:ext cx="5361262" cy="3952875"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2638,8 +2789,8 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -2654,8 +2805,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4324350" y="13811251"/>
-          <a:ext cx="5361262" cy="1847850"/>
+          <a:off x="1581150" y="12334875"/>
+          <a:ext cx="5361262" cy="3324226"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2927,14 +3078,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>401775</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>316050</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2943,8 +3094,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7259775" y="6838950"/>
-          <a:ext cx="1971675" cy="952500"/>
+          <a:off x="4516575" y="6610350"/>
+          <a:ext cx="1971675" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -3293,14 +3444,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>401775</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>316050</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3309,8 +3460,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7259775" y="11706225"/>
-          <a:ext cx="1971675" cy="952500"/>
+          <a:off x="4516575" y="12992100"/>
+          <a:ext cx="1971675" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -3799,20 +3950,21 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>401774</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="51" name="カギ線コネクタ 50"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="9" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2265431" y="2816156"/>
-          <a:ext cx="6781800" cy="3206887"/>
+          <a:off x="112781" y="2663756"/>
+          <a:ext cx="5600700" cy="3206887"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3988,27 +4140,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>623888</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>401775</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>401774</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="63" name="カギ線コネクタ 62"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="13" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-168206" y="5249793"/>
-          <a:ext cx="11649075" cy="3206887"/>
+          <a:off x="-2687569" y="6245156"/>
+          <a:ext cx="11201400" cy="3206887"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4496,67 +4648,6 @@
         <a:xfrm>
           <a:off x="10307775" y="19497675"/>
           <a:ext cx="1971675" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>INII</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ファイル読み込み</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>477975</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>392250</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="正方形/長方形 85"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10079175" y="10410825"/>
-          <a:ext cx="1971675" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4835,14 +4926,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4851,7 +4942,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4552950" y="7696200"/>
+          <a:off x="1809750" y="6772275"/>
           <a:ext cx="1819275" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5303,14 +5394,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5319,7 +5410,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4524375" y="12392025"/>
+          <a:off x="1781175" y="13173075"/>
           <a:ext cx="1819275" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6336,7 +6427,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11725275" y="5695950"/>
+          <a:off x="11806238" y="5695950"/>
           <a:ext cx="35063" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6366,15 +6457,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
+      <xdr:colOff>461754</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>86553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>155298</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>221974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6383,8 +6474,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14573249" y="1647825"/>
-          <a:ext cx="1746251" cy="609600"/>
+          <a:off x="14898341" y="1527727"/>
+          <a:ext cx="1755914" cy="615812"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6423,15 +6514,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>69849</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>3589</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>24571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>381415</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>157922</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6440,8 +6531,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15087599" y="17703800"/>
-          <a:ext cx="1743076" cy="609600"/>
+          <a:off x="15127632" y="19480419"/>
+          <a:ext cx="1752740" cy="613742"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6960,15 +7051,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>304386</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>563217</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>231775</xdr:rowOff>
+      <xdr:rowOff>173797</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6977,8 +7068,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14763750" y="10271125"/>
-          <a:ext cx="2301875" cy="914400"/>
+          <a:off x="14806199" y="10501313"/>
+          <a:ext cx="2330518" cy="626234"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst>
@@ -7271,15 +7362,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>604975</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>628788</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>519250</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>543063</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7288,8 +7379,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14940100" y="16478250"/>
-          <a:ext cx="1962150" cy="904875"/>
+          <a:off x="15130601" y="17668876"/>
+          <a:ext cx="1985962" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7335,16 +7426,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>460374</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>79374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>603249</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>436561</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>162718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579436</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>210343</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7353,8 +7444,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20939124" y="793749"/>
-          <a:ext cx="1508125" cy="1000125"/>
+          <a:off x="3889374" y="162718"/>
+          <a:ext cx="1524000" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -7393,16 +7484,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>416718</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>230186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>559593</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>206374</xdr:rowOff>
+      <xdr:rowOff>39686</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7411,8 +7502,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21447124" y="1349374"/>
-          <a:ext cx="1508125" cy="1000125"/>
+          <a:off x="7322343" y="230186"/>
+          <a:ext cx="1524000" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -7523,6 +7614,6743 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>459168</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>27436</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>197609</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="片側の 2 つの角を切り取った四角形 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14960981" y="16716375"/>
+          <a:ext cx="2330518" cy="626234"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+            <a:gd name="adj2" fmla="val 35236"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PIC2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　ループ　終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>653808</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>221974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>685144</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直線矢印コネクタ 86"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="218" idx="4"/>
+          <a:endCxn id="80" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15846183" y="2126974"/>
+          <a:ext cx="31336" cy="460651"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>685144</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>10456</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="直線矢印コネクタ 87"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="2"/>
+          <a:endCxn id="220" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15877519" y="3492500"/>
+          <a:ext cx="15875" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>10456</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>10456</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直線矢印コネクタ 88"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="220" idx="2"/>
+          <a:endCxn id="221" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15893394" y="4841875"/>
+          <a:ext cx="0" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>10456</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>58081</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直線矢印コネクタ 90"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="221" idx="2"/>
+          <a:endCxn id="225" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15893394" y="6048375"/>
+          <a:ext cx="47625" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>10456</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>58081</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直線矢印コネクタ 97"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="225" idx="2"/>
+          <a:endCxn id="226" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15893394" y="7239000"/>
+          <a:ext cx="47625" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>10456</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>121581</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="直線矢印コネクタ 100"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="226" idx="2"/>
+          <a:endCxn id="229" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15893394" y="8556625"/>
+          <a:ext cx="111125" cy="365125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>88520</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>121581</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直線矢印コネクタ 103"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="229" idx="2"/>
+          <a:endCxn id="230" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15971458" y="9826625"/>
+          <a:ext cx="33061" cy="674688"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>88520</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>173797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>153331</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="直線矢印コネクタ 106"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="230" idx="1"/>
+          <a:endCxn id="231" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15971458" y="11127547"/>
+          <a:ext cx="64811" cy="477078"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>153331</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>153331</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="直線矢印コネクタ 109"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="231" idx="2"/>
+          <a:endCxn id="233" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16036269" y="12509500"/>
+          <a:ext cx="0" cy="365125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>153331</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>185081</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="直線矢印コネクタ 114"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="233" idx="2"/>
+          <a:endCxn id="234" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16036269" y="13779500"/>
+          <a:ext cx="31750" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>185081</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>248581</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="直線矢印コネクタ 117"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="234" idx="2"/>
+          <a:endCxn id="235" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16068019" y="14938375"/>
+          <a:ext cx="63500" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>243302</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>248581</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="直線矢印コネクタ 120"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="235" idx="2"/>
+          <a:endCxn id="82" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16126240" y="16144875"/>
+          <a:ext cx="5279" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>240644</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>197609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>243302</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="直線矢印コネクタ 123"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="1"/>
+          <a:endCxn id="236" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16123582" y="17342609"/>
+          <a:ext cx="2658" cy="326267"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>192502</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>240644</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>24571</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="直線矢印コネクタ 126"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="236" idx="2"/>
+          <a:endCxn id="219" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16075440" y="18573751"/>
+          <a:ext cx="48142" cy="738945"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>178593</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>321468</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="フローチャート: 書類 129"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5703093" y="206374"/>
+          <a:ext cx="1524000" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C_BrandCfg.ini</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>.ini</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>216695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="角丸四角形 132"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20697826" y="1407320"/>
+          <a:ext cx="3352800" cy="7784306"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3818"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>図面枠作成機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="楕円 133"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21121687" y="2052638"/>
+          <a:ext cx="1766888" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>73817</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>173832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>459580</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>69057</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="楕円 134"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21481255" y="8270082"/>
+          <a:ext cx="1766888" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>442257</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>218281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>356531</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>170656</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="正方形/長方形 137"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21159132" y="3075781"/>
+          <a:ext cx="1985962" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>図枠テンプレートから属性定義取得</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>466069</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>380343</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="正方形/長方形 138"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21182944" y="4302124"/>
+          <a:ext cx="1985962" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>取得した属性定義を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力画面に表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>123823</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>266698</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>214311</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="フローチャート: 手操作入力 142"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21531261" y="5519736"/>
+          <a:ext cx="1524000" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力画面で値を入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>597038</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>218280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>511312</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>170655</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="正方形/長方形 143"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21313913" y="6885780"/>
+          <a:ext cx="1985962" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>図枠テンプレートに</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力した値を反映</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>597693</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>54113</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>218281</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="直線矢印コネクタ 144"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="134" idx="4"/>
+          <a:endCxn id="138" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22005131" y="2662238"/>
+          <a:ext cx="146982" cy="413543"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>54113</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>170656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>77925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="148" name="直線矢印コネクタ 147"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="138" idx="2"/>
+          <a:endCxn id="139" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22152113" y="3980656"/>
+          <a:ext cx="23812" cy="321468"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>77925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>195261</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>131444</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="151" name="直線矢印コネクタ 150"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="139" idx="2"/>
+          <a:endCxn id="143" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22175925" y="5206999"/>
+          <a:ext cx="117336" cy="401320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>195261</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>214311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>208894</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>218280</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="154" name="直線矢印コネクタ 153"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="143" idx="2"/>
+          <a:endCxn id="144" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22293261" y="6405561"/>
+          <a:ext cx="13633" cy="480219"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>208894</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>170655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>173832</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="158" name="直線矢印コネクタ 157"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="144" idx="2"/>
+          <a:endCxn id="135" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22306894" y="7790655"/>
+          <a:ext cx="57805" cy="479427"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>635796</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>73818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="角丸四角形 170"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24805484" y="1026318"/>
+          <a:ext cx="5793578" cy="21024057"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3818"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>セリアル定義機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>183356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>78581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="楕円 171"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25717499" y="1612106"/>
+          <a:ext cx="1766888" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>573879</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>150019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>269080</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>45244</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="楕円 172"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26124692" y="21105019"/>
+          <a:ext cx="1766888" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>119061</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>83343</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>136397</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="フローチャート: 判断 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25669874" y="2595562"/>
+          <a:ext cx="2035969" cy="1112710"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>7Dig</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コマンド</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>656791</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>135711</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="297133" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="テキスト ボックス 98"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26207604" y="3707586"/>
+          <a:ext cx="297133" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>654843</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76866</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="フローチャート: 判断 173"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25550812" y="5869781"/>
+          <a:ext cx="2035969" cy="1112710"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Note/Year Sign</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コマンド</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>37443</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>642280</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51593</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="正方形/長方形 174"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25588256" y="4147343"/>
+          <a:ext cx="1985962" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>桁数を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>桁に設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>49349</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>654186</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51593</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="正方形/長方形 175"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28362412" y="4147343"/>
+          <a:ext cx="1985962" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>桁数を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>桁に設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>43204</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99992</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="333682" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="テキスト ボックス 176"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29737392" y="3195617"/>
+          <a:ext cx="333682" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>359135</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>230961</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="297133" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="179" name="テキスト ボックス 178"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25909948" y="6898461"/>
+          <a:ext cx="297133" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>590891</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>230961</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="333682" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="テキスト ボックス 179"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27522829" y="5945961"/>
+          <a:ext cx="333682" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>326230</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>197642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>469105</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>130967</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="フローチャート: 手操作入力 180"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25877043" y="7341392"/>
+          <a:ext cx="1524000" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>注記内容を入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>504823</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>233359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>647698</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>166684</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="193" name="フローチャート: 手操作入力 192"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26055636" y="8567734"/>
+          <a:ext cx="1524000" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>年記号の有無を入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>287475</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>134937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>201750</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="194" name="正方形/長方形 193"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25838288" y="10136187"/>
+          <a:ext cx="1985962" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>INI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイルからセリアルのブランド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>No</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>、文字のサイズ、間隔を取得</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>311287</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>99217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>225562</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>51592</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="195" name="正方形/長方形 194"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25862100" y="11291092"/>
+          <a:ext cx="1985962" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>INI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイルからセリアル文字の画層、線種情報を取得</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>335100</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>218282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>249375</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>170657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="正方形/長方形 201"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25885913" y="14743907"/>
+          <a:ext cx="1985962" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>検出したセリアルから</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テキストの配置計算</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>335099</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>230186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>249374</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>182561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="正方形/長方形 202"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25885912" y="15946436"/>
+          <a:ext cx="1985962" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セリアルテキストを作図</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>370818</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>194470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>285093</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>146845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="206" name="正方形/長方形 205"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25921631" y="13529470"/>
+          <a:ext cx="1985962" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>円弧配列のテンプレート</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>機能で配置した</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セリアルを検出する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>659506</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>111644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>392906</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>4201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="線吹き出し 1 (枠付き) 206"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28282006" y="13208519"/>
+          <a:ext cx="1805088" cy="1083182"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52783"/>
+            <a:gd name="adj2" fmla="val 93"/>
+            <a:gd name="adj3" fmla="val 77308"/>
+            <a:gd name="adj4" fmla="val -20936"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>特性データ（ブランド番号等）、属性等で</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ピクチャ内を検索する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>209136</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>467967</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>90452</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="209" name="片側の 2 つの角を切り取った四角形 208"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25759949" y="12561093"/>
+          <a:ext cx="2330518" cy="626234"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 34028"/>
+            <a:gd name="adj2" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PIC2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　ループ　開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>113886</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>372717</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>7109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="210" name="片側の 2 つの角を切り取った四角形 209"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25664699" y="20097750"/>
+          <a:ext cx="2330518" cy="626234"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+            <a:gd name="adj2" fmla="val 35236"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PIC2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　ループ　終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>359568</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>78581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>446484</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="212" name="直線矢印コネクタ 211"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="172" idx="4"/>
+          <a:endCxn id="93" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26600943" y="2221706"/>
+          <a:ext cx="86916" cy="373856"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>339862</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>136397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>446484</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99218</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="224" name="直線矢印コネクタ 223"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="93" idx="2"/>
+          <a:endCxn id="175" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="26581237" y="3708272"/>
+          <a:ext cx="106622" cy="439071"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>327422</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>339862</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="227" name="直線矢印コネクタ 226"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="175" idx="2"/>
+          <a:endCxn id="174" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="26568797" y="5052218"/>
+          <a:ext cx="12440" cy="817563"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>83343</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>56292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>351768</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99218</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="232" name="直線矢印コネクタ 231"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="93" idx="3"/>
+          <a:endCxn id="176" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27705843" y="3151917"/>
+          <a:ext cx="1649550" cy="995426"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>327423</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>351769</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="237" name="直線矢印コネクタ 231"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="176" idx="2"/>
+          <a:endCxn id="174" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="27553314" y="4067701"/>
+          <a:ext cx="817563" cy="2786596"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>327422</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>397668</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>48100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="239" name="直線矢印コネクタ 238"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="174" idx="2"/>
+          <a:endCxn id="181" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26568797" y="6982491"/>
+          <a:ext cx="70246" cy="447484"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>397668</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>130967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>576261</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>83817</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="242" name="直線矢印コネクタ 241"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="181" idx="2"/>
+          <a:endCxn id="193" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26639043" y="8227217"/>
+          <a:ext cx="178593" cy="429100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>576261</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>166684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>589894</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>134937</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="245" name="直線矢印コネクタ 244"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="193" idx="2"/>
+          <a:endCxn id="194" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26817636" y="9453559"/>
+          <a:ext cx="13633" cy="682628"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>673237</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>90452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>683833</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>194470</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="249" name="直線矢印コネクタ 248"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="209" idx="1"/>
+          <a:endCxn id="206" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="26914612" y="13187327"/>
+          <a:ext cx="10596" cy="342143"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>589894</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>613706</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>99217</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="253" name="直線矢印コネクタ 252"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="194" idx="2"/>
+          <a:endCxn id="195" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26831269" y="11041062"/>
+          <a:ext cx="23812" cy="250030"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>613706</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>51592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>683833</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="257" name="直線矢印コネクタ 256"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="195" idx="2"/>
+          <a:endCxn id="209" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26855081" y="12195967"/>
+          <a:ext cx="70127" cy="365126"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>637519</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>146845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>673237</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>218282</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="260" name="直線矢印コネクタ 259"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="206" idx="2"/>
+          <a:endCxn id="202" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="26878894" y="14434345"/>
+          <a:ext cx="35718" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>637518</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>170657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>637519</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>230186</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="263" name="直線矢印コネクタ 262"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="202" idx="2"/>
+          <a:endCxn id="203" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="26878893" y="15648782"/>
+          <a:ext cx="1" cy="297654"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>637518</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>182561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>684611</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>226218</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="266" name="直線矢印コネクタ 265"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="203" idx="2"/>
+          <a:endCxn id="300" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26878893" y="16851311"/>
+          <a:ext cx="47093" cy="281782"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>588583</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>7109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>76198</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>150019</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="269" name="直線矢印コネクタ 268"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="210" idx="1"/>
+          <a:endCxn id="173" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26829958" y="20723984"/>
+          <a:ext cx="178178" cy="381035"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>589894</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>234886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>654843</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>134937</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="275" name="直線矢印コネクタ 231"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="174" idx="3"/>
+          <a:endCxn id="194" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="26831269" y="6426136"/>
+          <a:ext cx="755512" cy="3710051"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -118509"/>
+            <a:gd name="adj2" fmla="val 90553"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>226218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>321470</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>148303</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="300" name="フローチャート: 判断 299"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25908001" y="17133093"/>
+          <a:ext cx="2035969" cy="1112710"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年記号有</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>228168</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>99992</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="297133" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="301" name="テキスト ボックス 300"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26469543" y="18197492"/>
+          <a:ext cx="297133" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>317049</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>88085</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="333682" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="302" name="テキスト ボックス 301"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27939549" y="17233085"/>
+          <a:ext cx="333682" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>394630</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>230186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>308905</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>182561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="305" name="正方形/長方形 304"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25945443" y="18565811"/>
+          <a:ext cx="1985962" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>年記号「◁」を作図</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>684611</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>148303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>6486</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>230186</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="306" name="直線矢印コネクタ 305"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="300" idx="2"/>
+          <a:endCxn id="305" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26925986" y="18245803"/>
+          <a:ext cx="12438" cy="320008"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>588583</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>182561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>6486</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="312" name="直線矢印コネクタ 311"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="305" idx="2"/>
+          <a:endCxn id="210" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="26829958" y="19470686"/>
+          <a:ext cx="108466" cy="627064"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>588583</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>68198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>321470</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="315" name="直線矢印コネクタ 231"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="300" idx="3"/>
+          <a:endCxn id="210" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="26829958" y="17689448"/>
+          <a:ext cx="1114012" cy="2408302"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -55789"/>
+            <a:gd name="adj2" fmla="val 85776"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>671515</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>250030</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="324" name="角丸四角形 323"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31056265" y="966787"/>
+          <a:ext cx="5793578" cy="10963275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3818"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>モールド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>No</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>定義機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>183356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>78581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="325" name="楕円 324"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31861124" y="1612106"/>
+          <a:ext cx="1766888" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>300036</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="326" name="楕円 325"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32065911" y="10734677"/>
+          <a:ext cx="1766888" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>144601</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>39687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>58875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>230187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="344" name="正方形/長方形 343"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31910476" y="2420937"/>
+          <a:ext cx="1985962" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>INI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイルからモールド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>No</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のブランド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>No</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を取得</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>168413</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>82687</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>194467</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="345" name="正方形/長方形 344"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31934288" y="3575842"/>
+          <a:ext cx="1985962" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>INI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイルからモールド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>No</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テキストの画層、線種情報を取得</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>144602</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>27781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>58876</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>218281</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="346" name="正方形/長方形 345"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31910477" y="7171531"/>
+          <a:ext cx="1985962" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>検出したモールド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>No</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>から</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テキストの配置計算</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>144601</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>39685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>58875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>230185</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="347" name="正方形/長方形 346"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31910476" y="8374060"/>
+          <a:ext cx="1985962" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>モールド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>No.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テキストを作図</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>180320</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>94594</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>194469</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="348" name="正方形/長方形 347"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31946195" y="5957094"/>
+          <a:ext cx="1985962" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>円弧配列のテンプレート</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>機能で配置した</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>モールド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>No</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を検出する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>445194</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>178595</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>16106</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="349" name="線吹き出し 1 (枠付き) 348"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34282757" y="6791049"/>
+          <a:ext cx="1805088" cy="1083182"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52783"/>
+            <a:gd name="adj2" fmla="val 93"/>
+            <a:gd name="adj3" fmla="val 77308"/>
+            <a:gd name="adj4" fmla="val -20936"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>特性データ（ブランド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>No</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>等）、属性等で</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ピクチャ内を検索する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>673481</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>241749</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>54732</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="350" name="片側の 2 つの角を切り取った四角形 349"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31748794" y="4905373"/>
+          <a:ext cx="2330518" cy="626234"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 34028"/>
+            <a:gd name="adj2" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PIC2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　ループ　開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>673481</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>241749</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>78547</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="351" name="片側の 2 つの角を切り取った四角形 350"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31748794" y="9691688"/>
+          <a:ext cx="2330518" cy="626234"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+            <a:gd name="adj2" fmla="val 35236"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PIC2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　ループ　終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>457615</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>54732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>482738</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3969</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="352" name="直線矢印コネクタ 351"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="350" idx="1"/>
+          <a:endCxn id="348" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32914053" y="5531607"/>
+          <a:ext cx="25123" cy="425487"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>447019</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>230187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>470831</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3967</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="353" name="直線矢印コネクタ 352"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="344" idx="2"/>
+          <a:endCxn id="345" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32903457" y="3325812"/>
+          <a:ext cx="23812" cy="250030"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>457615</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>194467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>470831</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="354" name="直線矢印コネクタ 353"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="345" idx="2"/>
+          <a:endCxn id="350" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="32914053" y="4480717"/>
+          <a:ext cx="13216" cy="424656"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>447020</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>194469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>482738</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>27781</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="355" name="直線矢印コネクタ 354"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="348" idx="2"/>
+          <a:endCxn id="346" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="32903458" y="6861969"/>
+          <a:ext cx="35718" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>447019</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>218281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>447020</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>39685</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="356" name="直線矢印コネクタ 355"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="346" idx="2"/>
+          <a:endCxn id="347" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="32903457" y="8076406"/>
+          <a:ext cx="1" cy="297654"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>447019</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>230185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>457615</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="388" name="直線矢印コネクタ 387"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="347" idx="2"/>
+          <a:endCxn id="351" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32903457" y="9278935"/>
+          <a:ext cx="10596" cy="412753"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>457615</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>78547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>492917</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="394" name="直線矢印コネクタ 393"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="351" idx="1"/>
+          <a:endCxn id="326" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32914053" y="10317922"/>
+          <a:ext cx="35302" cy="416755"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>316709</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>235744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>416718</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="401" name="角丸四角形 400"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37607084" y="950119"/>
+          <a:ext cx="3552822" cy="8884444"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3818"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>TWI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>マーク定義機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>202406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>97631</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="402" name="楕円 401"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38252399" y="1688306"/>
+          <a:ext cx="1757363" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>576260</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>145258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>271461</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>40483</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="403" name="楕円 402"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38557198" y="8479633"/>
+          <a:ext cx="1766888" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>619123</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>61909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>76198</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>242884</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="406" name="フローチャート: 手操作入力 405"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38338123" y="2786059"/>
+          <a:ext cx="1514475" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Count (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>６ｏｒ７</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>631029</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>192877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>88104</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>130967</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="407" name="フローチャート: 手操作入力 406"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38611967" y="4002877"/>
+          <a:ext cx="1528762" cy="1128715"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Type</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ＡｏｒＢｏｒＣ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>311288</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>225563</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>194468</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="409" name="正方形/長方形 408"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38292226" y="5718968"/>
+          <a:ext cx="1985962" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TWI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>文字列を生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>311289</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>146843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>225564</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>99218</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="410" name="正方形/長方形 409"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38292227" y="7052468"/>
+          <a:ext cx="1985962" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>生成した文字列を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>属性定義に反映</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>2379</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>97631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>151444</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="411" name="直線矢印コネクタ 410"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="402" idx="4"/>
+          <a:endCxn id="406" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="39364442" y="2240756"/>
+          <a:ext cx="35720" cy="530063"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>2379</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>14285</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>67624</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="414" name="直線矢印コネクタ 413"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="406" idx="2"/>
+          <a:endCxn id="407" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39364442" y="3576634"/>
+          <a:ext cx="11906" cy="539115"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>613707</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>130967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>14285</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3968</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="417" name="直線矢印コネクタ 416"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="407" idx="2"/>
+          <a:endCxn id="409" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="39285207" y="5131592"/>
+          <a:ext cx="91141" cy="587376"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>613707</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>194468</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>613708</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>146843</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="420" name="直線矢印コネクタ 419"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="409" idx="2"/>
+          <a:endCxn id="410" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39285207" y="6623843"/>
+          <a:ext cx="1" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>613708</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>99218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>78579</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>145258</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="423" name="直線矢印コネクタ 422"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="410" idx="2"/>
+          <a:endCxn id="403" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39285208" y="7957343"/>
+          <a:ext cx="155434" cy="522290"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>566741</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>235744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="428" name="角丸四角形 427"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42000491" y="950119"/>
+          <a:ext cx="4838696" cy="9658350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3818"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Platform</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>マーク類定義機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>92869</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>202406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>483394</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>97631</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="429" name="楕円 428"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42907744" y="1631156"/>
+          <a:ext cx="1771650" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>64293</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>450056</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171453</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="430" name="楕円 429"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42879168" y="9563103"/>
+          <a:ext cx="1766888" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>138116</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>45244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>52391</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7144</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="431" name="正方形/長方形 430"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42952991" y="2664619"/>
+          <a:ext cx="1985963" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>INII</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイル読み込み</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>507210</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>471492</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>98298</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="432" name="フローチャート: 判断 431"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42631523" y="5414963"/>
+          <a:ext cx="2035969" cy="1112710"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DOT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>175784</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>14268</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="297133" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="433" name="テキスト ボックス 432"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42990659" y="6443643"/>
+          <a:ext cx="297133" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>407540</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>14268</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="333682" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="434" name="テキスト ボックス 433"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44603540" y="5491143"/>
+          <a:ext cx="333682" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>585132</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>27780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>499407</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>218280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="437" name="正方形/長方形 436"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42709445" y="6933405"/>
+          <a:ext cx="1985962" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>特性データアクセス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（調査中）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>156507</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>70781</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="442" name="正方形/長方形 441"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42971382" y="3873499"/>
+          <a:ext cx="1985962" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>338038</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>135455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>71439</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28012</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="455" name="線吹き出し 1 (枠付き) 454"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="45224601" y="8231705"/>
+          <a:ext cx="1805088" cy="1083182"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52783"/>
+            <a:gd name="adj2" fmla="val 93"/>
+            <a:gd name="adj3" fmla="val -51297"/>
+            <a:gd name="adj4" fmla="val -38745"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>この処理の有無で図面配置時の処理の有無が決まっている？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>608943</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>15873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>523218</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>206373</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="456" name="正方形/長方形 455"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42733256" y="8350248"/>
+          <a:ext cx="1985962" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>サブモデルから当該の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Platform</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マークを読込む</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>144070</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>98298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>196988</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>27780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="457" name="直線矢印コネクタ 456"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="432" idx="2"/>
+          <a:endCxn id="437" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43649508" y="6527673"/>
+          <a:ext cx="52918" cy="405732"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>196988</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>218280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>220799</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>15873</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="460" name="直線矢印コネクタ 459"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="437" idx="2"/>
+          <a:endCxn id="456" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43702426" y="7838280"/>
+          <a:ext cx="23811" cy="511968"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>220799</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>206373</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38103</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="463" name="直線矢印コネクタ 462"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="456" idx="2"/>
+          <a:endCxn id="430" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43726237" y="9255123"/>
+          <a:ext cx="36375" cy="307980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>220799</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>18193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>471492</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>15873</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="466" name="直線矢印コネクタ 465"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="432" idx="3"/>
+          <a:endCxn id="456" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="43726237" y="5971318"/>
+          <a:ext cx="941255" cy="2378930"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -73619"/>
+            <a:gd name="adj2" fmla="val 88719"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7969,8 +14797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC45" sqref="AC45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="10" topLeftCell="AY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8792,10 +15621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8804,15 +15633,16 @@
     <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="41.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -8825,12 +15655,15 @@
       <c r="D2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -8842,10 +15675,11 @@
       <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="31"/>
+    <row r="4" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="32"/>
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -8855,11 +15689,12 @@
       <c r="D4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -8872,9 +15707,12 @@
       <c r="D5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -8887,13 +15725,16 @@
       <c r="D6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -8902,35 +15743,42 @@
       <c r="D7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="30"/>
-      <c r="B8" s="39"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="31"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="35"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="30"/>
-      <c r="B9" s="39"/>
+    <row r="9" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="31"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="35"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="30"/>
-      <c r="B10" s="39" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="31"/>
+      <c r="B10" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -8939,31 +15787,38 @@
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="34"/>
+      <c r="E10" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10" s="35"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="30"/>
-      <c r="B11" s="39"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="31"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="34"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="35"/>
     </row>
-    <row r="12" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="31"/>
-      <c r="B12" s="40"/>
+    <row r="12" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="32"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="35"/>
+      <c r="E12" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="36"/>
     </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -8976,9 +15831,10 @@
       <c r="D13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -8991,10 +15847,11 @@
       <c r="D14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="41" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="42" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -9006,12 +15863,15 @@
       <c r="D15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="F15" s="37" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="31"/>
+    <row r="16" spans="1:6" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="32"/>
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
@@ -9021,10 +15881,13 @@
       <c r="D16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="37"/>
+      <c r="E16" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="F16" s="38"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="32" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -9036,10 +15899,13 @@
       <c r="D17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="31"/>
+    <row r="18" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="32"/>
       <c r="B18" s="7" t="s">
         <v>7</v>
       </c>
@@ -9049,12 +15915,15 @@
       <c r="D18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="41" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="42" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -9066,10 +15935,13 @@
       <c r="D19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="31"/>
+    <row r="20" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="32"/>
       <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
@@ -9079,11 +15951,14 @@
       <c r="D20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
         <v>268</v>
       </c>
@@ -9096,9 +15971,10 @@
       <c r="D21" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
         <v>12</v>
       </c>
@@ -9111,9 +15987,12 @@
       <c r="D22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="18"/>
+      <c r="E22" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="11" t="s">
         <v>13</v>
       </c>
@@ -9126,22 +16005,26 @@
       <c r="D23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A7:A12"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F7:F12"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10189,13 +17072,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A5" s="24">
@@ -10396,13 +17279,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A3" s="24">

--- a/要件定義書/C表作成メモ.xlsx
+++ b/要件定義書/C表作成メモ.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27375" windowHeight="11085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27375" windowHeight="11085" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要フロー" sheetId="14" r:id="rId1"/>
-    <sheet name="C表作成自動化対象" sheetId="1" r:id="rId2"/>
-    <sheet name="Load Drawingコマンド入力値一覧" sheetId="3" r:id="rId3"/>
-    <sheet name="FrameDataコマンド入力値一覧" sheetId="2" r:id="rId4"/>
-    <sheet name="Serialコマンド入力値一覧" sheetId="4" r:id="rId5"/>
-    <sheet name="Mold No.コマンド入力値一覧 " sheetId="5" r:id="rId6"/>
-    <sheet name="TWIコマンド入力値一覧" sheetId="6" r:id="rId7"/>
-    <sheet name="Platformコマンド入力値一覧 " sheetId="7" r:id="rId8"/>
-    <sheet name=" Safety Detailコマンド入力値一覧" sheetId="9" r:id="rId9"/>
-    <sheet name="Labeling Detailコマンド一覧" sheetId="11" r:id="rId10"/>
-    <sheet name="Detailコマンド一覧" sheetId="12" r:id="rId11"/>
-    <sheet name="Save Drawingコマンド一覧" sheetId="13" r:id="rId12"/>
+    <sheet name="削除されるPICと追加されるPIC" sheetId="15" r:id="rId2"/>
+    <sheet name="C表作成自動化対象" sheetId="1" r:id="rId3"/>
+    <sheet name="Load Drawingコマンド入力値一覧" sheetId="3" r:id="rId4"/>
+    <sheet name="FrameDataコマンド入力値一覧" sheetId="2" r:id="rId5"/>
+    <sheet name="Serialコマンド入力値一覧" sheetId="4" r:id="rId6"/>
+    <sheet name="Mold No.コマンド入力値一覧 " sheetId="5" r:id="rId7"/>
+    <sheet name="TWIコマンド入力値一覧" sheetId="6" r:id="rId8"/>
+    <sheet name="Platformコマンド入力値一覧 " sheetId="7" r:id="rId9"/>
+    <sheet name=" Safety Detailコマンド入力値一覧" sheetId="9" r:id="rId10"/>
+    <sheet name="Labeling Detailコマンド一覧" sheetId="11" r:id="rId11"/>
+    <sheet name="Detailコマンド一覧" sheetId="12" r:id="rId12"/>
+    <sheet name="Save Drawingコマンド一覧" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="297">
   <si>
     <t>C表作成自動化</t>
     <rPh sb="1" eb="4">
@@ -1890,6 +1891,30 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×・・・削除されるPIC</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+・・・追加されるPIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>－・・・一部オブジェクトを削除、非表示にするPIC</t>
+    <rPh sb="4" eb="6">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ヒヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2313,7 +2338,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2431,10 +2456,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
@@ -2464,17 +2498,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -20905,6 +20933,1263 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>62442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>246380</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>25823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="62442"/>
+          <a:ext cx="8475980" cy="6869006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>27516</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>62442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>222672</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>18203</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9628716" y="62442"/>
+          <a:ext cx="8424756" cy="6861386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>55033</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>559858</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>208492</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="乗算 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5541433" y="1121833"/>
+          <a:ext cx="504825" cy="515409"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>93133</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>597958</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="乗算 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5579533" y="2219325"/>
+          <a:ext cx="504825" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>83608</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>588433</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>46567</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="乗算 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5570008" y="3341158"/>
+          <a:ext cx="504825" cy="515409"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>578908</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="乗算 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5560483" y="4419600"/>
+          <a:ext cx="504825" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>578908</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="乗算 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5560483" y="5598583"/>
+          <a:ext cx="504825" cy="515409"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>62442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>411692</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="乗算 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762750" y="62442"/>
+          <a:ext cx="506942" cy="515408"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>226483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>392642</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>27517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="乗算 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743700" y="1178983"/>
+          <a:ext cx="506942" cy="515409"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>402167</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="乗算 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6753225" y="2253192"/>
+          <a:ext cx="506942" cy="515408"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>402167</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>56092</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="乗算 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6753225" y="3350683"/>
+          <a:ext cx="506942" cy="515409"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>214842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>392642</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="乗算 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743700" y="4501092"/>
+          <a:ext cx="506942" cy="515408"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>385233</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>197908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>237067</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="乗算 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7929033" y="1150408"/>
+          <a:ext cx="506942" cy="515409"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>413808</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="乗算 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7957608" y="2238375"/>
+          <a:ext cx="506942" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>91017</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="加算 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10547350" y="2291292"/>
+          <a:ext cx="516467" cy="524933"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathPlus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>250825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>64558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>81492</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>113242</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="加算 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10537825" y="3398308"/>
+          <a:ext cx="516467" cy="524934"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathPlus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>52917</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="加算 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10509250" y="4419600"/>
+          <a:ext cx="516467" cy="530225"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathPlus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>55033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>52917</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>103717</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="加算 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10509250" y="5531908"/>
+          <a:ext cx="516467" cy="524934"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathPlus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>274108</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="加算 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11932708" y="38100"/>
+          <a:ext cx="516467" cy="530225"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathPlus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>245533</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>159808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>208492</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="加算 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11904133" y="1112308"/>
+          <a:ext cx="516467" cy="524934"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathPlus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68792</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545042</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="減算 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="754592" y="0"/>
+          <a:ext cx="476250" cy="486833"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMinus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>78317</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>554567</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>122767</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="減算 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="764117" y="1064683"/>
+          <a:ext cx="476250" cy="486834"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMinus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -20942,7 +22227,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -21342,7 +22627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
@@ -21356,6 +22641,60 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -21534,7 +22873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -21588,7 +22927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
@@ -22164,6 +23503,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="54" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="54" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -22207,7 +23578,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -22275,10 +23646,10 @@
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="50" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -22287,28 +23658,28 @@
       <c r="D7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="45" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="39"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
@@ -22318,11 +23689,11 @@
       <c r="E9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="43"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="39"/>
-      <c r="B10" s="48" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="51" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -22331,26 +23702,26 @@
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="F10" s="43"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="39"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="40"/>
-      <c r="B12" s="49"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
@@ -22360,7 +23731,7 @@
       <c r="E12" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="44"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
@@ -22395,7 +23766,7 @@
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="39" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -22410,7 +23781,7 @@
       <c r="E15" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="48" t="s">
         <v>200</v>
       </c>
     </row>
@@ -22428,10 +23799,10 @@
       <c r="E16" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="F16" s="46"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="44" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -22467,7 +23838,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -22554,17 +23925,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E10:E11"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="F7:F12"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22572,7 +23943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -22625,7 +23996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I52"/>
   <sheetViews>
@@ -23548,7 +24919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -23663,7 +25034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -23716,7 +25087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -23789,7 +25160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -23868,58 +25239,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="24"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>